--- a/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-22.xlsx
+++ b/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Programming\projects\022_politik_landschaft_von_schaffhausen\static\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA25DF-D149-4632-9E25-009E1A3ACCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AAA5F-F384-4C27-9217-532370810A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" firstSheet="24" activeTab="26" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" firstSheet="24" activeTab="26" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="428">
   <si>
     <t>Quelle</t>
   </si>
@@ -2584,41 +2584,41 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Vorlage</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
     </row>
   </sheetData>
@@ -2672,25 +2672,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Siblingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>Siblingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2839,25 +2839,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Neunkirch</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>Neunkirch</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -3025,25 +3025,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Thayngen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>Thayngen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -3181,25 +3181,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Thayngen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>Thayngen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>333</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>336</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>339</v>
       </c>
@@ -3537,25 +3537,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Stein am Rhein</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>Stein am Rhein</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>343</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>346</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -3723,25 +3723,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Stein am Rhein</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>Stein am Rhein</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>366</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>375</v>
       </c>
@@ -4078,25 +4078,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Hemishofen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>Hemishofen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4175,25 +4175,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Ramsen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4273,25 +4273,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Buch</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>Buch</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4372,25 +4372,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Dörflingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>Dörflingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4471,25 +4471,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Beringen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>Beringen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4656,25 +4656,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Lohn</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>Lohn</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4755,31 +4755,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Stetten</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>Stetten</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4849,31 +4849,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Büttenhardt</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>Büttenhardt</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4943,31 +4943,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Merishausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>Merishausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5037,31 +5037,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Bargen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>Bargen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5131,31 +5131,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Löhningen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>Löhningen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5225,31 +5225,31 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Gächlingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>Gächlingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5316,28 +5316,28 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Oberhallau</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>Oberhallau</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5396,8 +5396,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5418,25 +5421,25 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Hallau</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>Hallau</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>422</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -5570,25 +5573,25 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Trasadingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>Trasadingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>412</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>414</v>
       </c>
@@ -5756,25 +5759,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Beringen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>Beringen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -6092,25 +6095,25 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Wilchingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>Wilchingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>403</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>404</v>
       </c>
@@ -6233,25 +6236,25 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Rüdlingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>Rüdlingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>394</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>397</v>
       </c>
@@ -6400,25 +6403,25 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Buchberg</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>Buchberg</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>388</v>
       </c>
@@ -6511,7 +6514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>390</v>
       </c>
@@ -6552,25 +6555,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Schleitheim</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>Schleitheim</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -6719,25 +6722,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Beggingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>Beggingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -6905,25 +6908,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Grosserstadtrat Schaffhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>Schaffhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -7189,7 +7192,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>220</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -7718,7 +7721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -7787,7 +7790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -7865,25 +7868,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Stadtrat Schaffhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>Schaffhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -8051,25 +8054,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Neuhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8102,7 +8105,7 @@
         <v>Neuhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8237,25 +8240,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Neuhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>Neuhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>267</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -8399,7 +8402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>279</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -8631,7 +8634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>311</v>
       </c>

--- a/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-22.xlsx
+++ b/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Programming\projects\022_politik_landschaft_von_schaffhausen\static\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AAA5F-F384-4C27-9217-532370810A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0573A7-C644-481F-B862-4111366F0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" firstSheet="24" activeTab="26" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="484">
   <si>
     <t>Quelle</t>
   </si>
@@ -1373,6 +1373,174 @@
   </si>
   <si>
     <t>https://oberhallau.ch/CMS/Webseite/Gemeinde-Oberhallau/Politik/Gemeinderat-4347110-DE.html</t>
+  </si>
+  <si>
+    <t>Telli</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hutter</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>https://gaechlingen.ch/CMS/Webseiten/Gemeinde-G-chlingen/Politik/Gemeinderat-4350079-DE.html</t>
+  </si>
+  <si>
+    <t>Bachmann</t>
+  </si>
+  <si>
+    <t>Siegmar</t>
+  </si>
+  <si>
+    <t>Deuring</t>
+  </si>
+  <si>
+    <t>Heusi</t>
+  </si>
+  <si>
+    <t>von Boeckmann</t>
+  </si>
+  <si>
+    <t>https://www.loehningen.ch/verwaltung/gemeinderat-loehningen</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Thomann</t>
+  </si>
+  <si>
+    <t>Gallmann</t>
+  </si>
+  <si>
+    <t>Seref</t>
+  </si>
+  <si>
+    <t>Käthi</t>
+  </si>
+  <si>
+    <t>Gültabak</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/politik/gemeinderat</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Känel</t>
+  </si>
+  <si>
+    <t>Lindner</t>
+  </si>
+  <si>
+    <t>Bracher</t>
+  </si>
+  <si>
+    <t>Janik</t>
+  </si>
+  <si>
+    <t>Schwab</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Zysset</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/marc_kaenel.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/dario_kaenel.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/christian_linder.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/user_upload/002-FabianWeber_R5_46687_231223_WebSize.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/christian_bracher.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/Janik_Schwab_R5_45258_231002_Klein.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bargen-be.ch/fileadmin/Bilder/Politik/Gemeinderat/samuel_zysset.jpeg</t>
+  </si>
+  <si>
+    <t>https://merishausen.ch/CMS/Webseite/Gemeinde-Merishausen/Politik/Gemeinderat-8711392-DE.html</t>
+  </si>
+  <si>
+    <t>Ehrat</t>
+  </si>
+  <si>
+    <t>Sybille</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Gloor</t>
+  </si>
+  <si>
+    <t>Stauffacher</t>
+  </si>
+  <si>
+    <t>https://buettenhardt.ch/politik/gemeinderat-2/</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Marcuzzi</t>
+  </si>
+  <si>
+    <t>Bornbierer</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Saverio</t>
+  </si>
+  <si>
+    <t>Di Giorgio</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/gemeinderat/</t>
+  </si>
+  <si>
+    <t>Horat</t>
+  </si>
+  <si>
+    <t>Pfister</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Zürcher</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-3994.jpg</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-4017.jpg</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-3951.jpg</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-4040.jpg</t>
+  </si>
+  <si>
+    <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-3934.jpg</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1592,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1939,8 +2108,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0FAFE83B-1CB2-4ECD-A5AF-894DD23DB8DC}" name="Table131011121381415181920212223" displayName="Table131011121381415181920212223" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0FAFE83B-1CB2-4ECD-A5AF-894DD23DB8DC}" name="Table131011121381415181920212223" displayName="Table131011121381415181920212223" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8D306726-8589-45D7-B8C6-C86FC7C4A7B0}" name="Vorname" dataDxfId="59"/>
     <tableColumn id="2" xr3:uid="{B50367C0-3B39-4560-9426-6DDA45DB7CEE}" name="Nachname" dataDxfId="58"/>
@@ -1956,8 +2125,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4D39D862-869F-4298-9958-7BF144B7ADE3}" name="Table13101112138141518192021222324" displayName="Table13101112138141518192021222324" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4D39D862-869F-4298-9958-7BF144B7ADE3}" name="Table13101112138141518192021222324" displayName="Table13101112138141518192021222324" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F43503C-E9D6-4740-BF29-6A4B6603D04B}" name="Vorname" dataDxfId="54"/>
     <tableColumn id="2" xr3:uid="{9389DC50-AAA7-4885-B5E3-5EF06C12FE3F}" name="Nachname" dataDxfId="53"/>
@@ -1973,8 +2142,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{196538BE-2D17-4A93-A8CF-1C4B6BF10DC2}" name="Table1310111213814151819202122232425" displayName="Table1310111213814151819202122232425" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{196538BE-2D17-4A93-A8CF-1C4B6BF10DC2}" name="Table1310111213814151819202122232425" displayName="Table1310111213814151819202122232425" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E30C8061-DC98-4B86-8479-E5961823A98D}" name="Vorname" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{447F4BA3-157F-479B-B488-FD5D82F6B689}" name="Nachname" dataDxfId="48"/>
@@ -1990,8 +2159,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{31A6F882-BA24-4906-B55F-07663D85123F}" name="Table131011121381415181920212223242526" displayName="Table131011121381415181920212223242526" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{31A6F882-BA24-4906-B55F-07663D85123F}" name="Table131011121381415181920212223242526" displayName="Table131011121381415181920212223242526" ref="A7:H14" totalsRowShown="0">
+  <autoFilter ref="A7:H14" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6D9D42CA-2A2F-41A7-B991-B494D083CDB0}" name="Vorname" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{FF32D1C4-6A8E-42DB-BBF4-6C3F535E5DAE}" name="Nachname" dataDxfId="43"/>
@@ -2007,8 +2176,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{22BDB2A7-34DB-4E60-83FE-8541A2F024A2}" name="Table13101112138141518192021222324252627" displayName="Table13101112138141518192021222324252627" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{22BDB2A7-34DB-4E60-83FE-8541A2F024A2}" name="Table13101112138141518192021222324252627" displayName="Table13101112138141518192021222324252627" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A3D22CD2-AE80-48CC-ADFA-9211D29A3AB8}" name="Vorname" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{8BF483D9-C337-4D94-9F88-DAFE86C29886}" name="Nachname" dataDxfId="38"/>
@@ -2024,8 +2193,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{A80C8B6F-86E0-47F3-B097-93947CF96550}" name="Table1310111213814151819202122232425262728" displayName="Table1310111213814151819202122232425262728" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{A80C8B6F-86E0-47F3-B097-93947CF96550}" name="Table1310111213814151819202122232425262728" displayName="Table1310111213814151819202122232425262728" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{911D35F0-683B-40BC-8C45-363C5C3A6233}" name="Vorname" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{D890B735-3F3C-4635-A853-96EC55B15754}" name="Nachname" dataDxfId="33"/>
@@ -2041,8 +2210,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D87387EE-B6F9-4221-BFD6-035AB7EEAF75}" name="Table131011121381415181920212223242526272829" displayName="Table131011121381415181920212223242526272829" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D87387EE-B6F9-4221-BFD6-035AB7EEAF75}" name="Table131011121381415181920212223242526272829" displayName="Table131011121381415181920212223242526272829" ref="A7:H11" totalsRowShown="0">
+  <autoFilter ref="A7:H11" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9DFB5432-7DAE-4C1E-8D73-5ED47A2EA802}" name="Vorname" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{7DE2928A-A974-4507-8440-CB173A8EFC7B}" name="Nachname" dataDxfId="28"/>
@@ -2580,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5ADC74-F31E-4871-8542-E98FC1446FF8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,7 +4244,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFEB7DA-D45E-4239-A77D-32312EBE4CD6}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +4946,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4831,22 +5002,109 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BA9BCF99-B861-4650-A3DE-090D80C603E3}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{3530DC2C-BA83-44BD-A28C-78C4FDF311EB}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{A3326460-17F4-4919-BBC2-2F125A3A1295}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{22371901-B681-4805-A22C-A001F51E11BC}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{DE7E7278-C3EC-4756-A298-F0CE9993CFEE}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{CDB8D9CB-FA67-46D0-8BF1-DDB326C2FFB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6360853C-62CF-4665-BF75-E9C6E0A9D252}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,7 +5129,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4925,22 +5185,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D9A4A375-8448-4CCE-A740-166AC6523A40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35046483-25E2-4503-B87D-3FEEF7CA1F30}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,7 +5293,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5019,22 +5349,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{45316735-3875-46E3-8AE0-4F59C6701485}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAB066-09D6-4A9E-B3DD-F5FD6504E813}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5457,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5113,22 +5513,145 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3417E504-783C-4FF7-A03F-BD0A8C88BC3E}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{A5AA7D76-BBF9-4053-99BE-8E3A34A229E2}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{CD185E6C-5438-4E97-A209-A4B7FE6D76FD}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{AF1689B2-BDBF-4482-85C0-A87B49CCB510}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{212465E8-1540-40F0-9800-BD313F923962}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{E92FA46D-CF2E-4B06-AE85-7772199F56C4}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{5D3D19F9-82C1-48F2-8098-E427636DB45F}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{3199AE94-0BD4-4FBB-9ADA-EDBC25F22ED6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5512B-49EE-422A-B7C9-B91BF5A7AA27}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,7 +5676,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5207,22 +5732,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E6096B81-9DBB-451E-9984-6C7B4B1DFB37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133580C7-E593-43A1-BEF4-1B000781BD09}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5840,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5301,22 +5896,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4AAE811-E412-4854-A640-6D9281820CBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724A661E-5F78-4DE4-93F0-665FF95B7E71}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,9 +6060,57 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
